--- a/data/dictionary.xlsx
+++ b/data/dictionary.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="75" windowWidth="15075" windowHeight="4455"/>
   </bookViews>
   <sheets>
-    <sheet name="表名" sheetId="1" r:id="rId1"/>
+    <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="struct" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allow_empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
     <t>user_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,14 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,15 +120,6 @@
   <si>
     <t>币</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>用户id</t>
   </si>
 </sst>
 </file>
@@ -462,170 +466,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="b">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B8 B10:B1048576">
       <formula1>"struct,string,int,bool,date,ObjectId"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C8 C10:C1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/dictionary.xlsx
+++ b/data/dictionary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,49 +56,46 @@
     <t>user_id</t>
   </si>
   <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放平台登录信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_id|open_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>用户id</t>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放平台登录信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_id|open_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,6 +117,12 @@
   <si>
     <t>币</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectId</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -502,100 +505,100 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
